--- a/tests/regression_data_windows/design_optimization_windows.xlsx
+++ b/tests/regression_data_windows/design_optimization_windows.xlsx
@@ -500,7 +500,7 @@
         <v>1585000</v>
       </c>
       <c r="F2" t="n">
-        <v>3977.764947514536</v>
+        <v>3979.75886308017</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -648,70 +648,70 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.227151947864928</v>
+        <v>2.227194994278347</v>
       </c>
       <c r="C2" t="n">
-        <v>2.2839116530672</v>
+        <v>2.283911754624336</v>
       </c>
       <c r="D2" t="n">
-        <v>10.66000002256525</v>
+        <v>10.65999956216166</v>
       </c>
       <c r="E2" t="n">
-        <v>93.79581776406162</v>
+        <v>93.79106496452798</v>
       </c>
       <c r="F2" t="n">
-        <v>90.96022570562324</v>
+        <v>90.95778111368304</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03023154044641057</v>
+        <v>0.03020846230839267</v>
       </c>
       <c r="H2" t="n">
-        <v>-89.99045724606965</v>
+        <v>-89.98798957599143</v>
       </c>
       <c r="I2" t="n">
-        <v>227371.9681637993</v>
+        <v>227365.8476325875</v>
       </c>
       <c r="J2" t="n">
-        <v>57.16073502680701</v>
+        <v>57.13055877375838</v>
       </c>
       <c r="K2" t="n">
-        <v>3977.764947514536</v>
+        <v>3979.75886308017</v>
       </c>
       <c r="L2" t="n">
-        <v>2.475340382755529</v>
+        <v>2.7932407538101</v>
       </c>
       <c r="M2" t="n">
-        <v>37.6538362427284</v>
+        <v>37.63946141563277</v>
       </c>
       <c r="N2" t="n">
         <v>216.5604229337033</v>
       </c>
       <c r="O2" t="n">
-        <v>185.7269854854344</v>
+        <v>185.8984457246472</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8576220113048632</v>
+        <v>0.8584137544908529</v>
       </c>
       <c r="Q2" t="n">
         <v>497686.3106530505</v>
       </c>
       <c r="R2" t="n">
-        <v>476356.8577747677</v>
+        <v>476357.431012226</v>
       </c>
       <c r="S2" t="n">
         <v>474237.1022624383</v>
       </c>
       <c r="T2" t="n">
-        <v>0.911612702883369</v>
+        <v>0.9120696430082298</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7000366906688344</v>
+        <v>0.7007149554480786</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8576220113048632</v>
+        <v>0.8584137544908529</v>
       </c>
       <c r="W2" t="n">
-        <v>1.015207331940892</v>
+        <v>1.016112553533627</v>
       </c>
     </row>
   </sheetData>
@@ -1408,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12.36821977728593</v>
+        <v>12.35774123206104</v>
       </c>
       <c r="D2" t="n">
-        <v>12.36821977728593</v>
+        <v>12.35774123206104</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.36821977728593</v>
+        <v>12.35774123206104</v>
       </c>
       <c r="H2" t="n">
-        <v>12.36821977728593</v>
+        <v>12.35774123206104</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1432,102 +1432,102 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>463.0424922746769</v>
+        <v>463.0426743208795</v>
       </c>
       <c r="L2" t="n">
-        <v>3610362.183828706</v>
+        <v>3610378.486319703</v>
       </c>
       <c r="M2" t="n">
-        <v>125.8427953268424</v>
+        <v>125.8433506688998</v>
       </c>
       <c r="N2" t="n">
-        <v>468920.3615129316</v>
+        <v>468920.4881187566</v>
       </c>
       <c r="O2" t="n">
-        <v>497609.8242227497</v>
+        <v>497609.9537689425</v>
       </c>
       <c r="P2" t="n">
         <v>1837.707528152813</v>
       </c>
       <c r="Q2" t="n">
-        <v>-353326.8496850646</v>
+        <v>-353327.0546865488</v>
       </c>
       <c r="R2" t="n">
-        <v>962.2109911396508</v>
+        <v>962.2112496553016</v>
       </c>
       <c r="S2" t="n">
-        <v>1093.998131013886</v>
+        <v>1093.998652989897</v>
       </c>
       <c r="T2" t="n">
-        <v>1.136962829449854</v>
+        <v>1.136963066459477</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8943872123197021</v>
+        <v>0.8943869523547239</v>
       </c>
       <c r="V2" t="n">
-        <v>171.3352371551619</v>
+        <v>171.3352466389286</v>
       </c>
       <c r="W2" t="n">
-        <v>3694211.336663066</v>
+        <v>3694228.048119753</v>
       </c>
       <c r="X2" t="n">
-        <v>2.706937716517559e-07</v>
+        <v>2.706925471233344e-07</v>
       </c>
       <c r="Y2" t="n">
-        <v>3249192.709712944</v>
+        <v>3249206.730719622</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.07768756531633e-07</v>
+        <v>3.077674284450727e-07</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003320110484701121</v>
+        <v>0.003320113312997729</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.133802347008626e-05</v>
+        <v>2.133804246875606e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02951135806146724</v>
+        <v>0.02951138490238173</v>
       </c>
       <c r="AD2" t="n">
-        <v>16.28328319945192</v>
+        <v>16.29658195412274</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>3610362.183828706</v>
+        <v>3610378.486319703</v>
       </c>
       <c r="AH2" t="n">
-        <v>125.8427953268424</v>
+        <v>125.8433506688998</v>
       </c>
       <c r="AI2" t="n">
-        <v>125.8427953268424</v>
+        <v>125.8433506688998</v>
       </c>
       <c r="AJ2" t="n">
-        <v>468920.3615129316</v>
+        <v>468920.4881187566</v>
       </c>
       <c r="AK2" t="n">
-        <v>497609.8242227497</v>
+        <v>497609.9537689425</v>
       </c>
       <c r="AL2" t="n">
         <v>1837.707528152813</v>
       </c>
       <c r="AM2" t="n">
-        <v>962.2109911396508</v>
+        <v>962.2112496553016</v>
       </c>
       <c r="AN2" t="n">
-        <v>1093.998131013886</v>
+        <v>1093.998652989897</v>
       </c>
       <c r="AO2" t="n">
-        <v>171.3352371551619</v>
+        <v>171.3352466389286</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.8943872123197021</v>
+        <v>0.8943869523547239</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.133802347008626e-05</v>
+        <v>2.133804246875606e-05</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.02951135806146724</v>
+        <v>0.02951138490238173</v>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
@@ -1753,16 +1753,16 @@
       </c>
       <c r="DQ2" t="inlineStr"/>
       <c r="DR2" t="n">
-        <v>0.0721872510444843</v>
+        <v>0.0721260889074605</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0721872510444843</v>
+        <v>0.0721260889074605</v>
       </c>
       <c r="DT2" t="n">
-        <v>757455.2056797787</v>
+        <v>756943.7849974068</v>
       </c>
       <c r="DU2" t="n">
-        <v>10.6600001303714</v>
+        <v>10.66000094069115</v>
       </c>
       <c r="DV2" t="n">
         <v>497686.3106530505</v>
@@ -1816,126 +1816,126 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>118.6407351946236</v>
+        <v>118.7416774631745</v>
       </c>
       <c r="D3" t="n">
-        <v>22.59486093300653</v>
+        <v>22.61462422275961</v>
       </c>
       <c r="E3" t="n">
-        <v>116.4692934079145</v>
+        <v>116.5682835853386</v>
       </c>
       <c r="F3" t="n">
-        <v>79.02108454732277</v>
+        <v>79.02081958707976</v>
       </c>
       <c r="G3" t="n">
-        <v>118.6407351946236</v>
+        <v>118.7416774631745</v>
       </c>
       <c r="H3" t="n">
-        <v>22.59486093300653</v>
+        <v>22.61462422275961</v>
       </c>
       <c r="I3" t="n">
-        <v>116.4692934079145</v>
+        <v>116.5682835853386</v>
       </c>
       <c r="J3" t="n">
-        <v>79.02108454732277</v>
+        <v>79.02081958707976</v>
       </c>
       <c r="K3" t="n">
-        <v>453.2711658668854</v>
+        <v>453.2547799363293</v>
       </c>
       <c r="L3" t="n">
-        <v>2786661.134696331</v>
+        <v>2785428.06558027</v>
       </c>
       <c r="M3" t="n">
-        <v>97.58952243095221</v>
+        <v>97.54721716447152</v>
       </c>
       <c r="N3" t="n">
-        <v>462093.5773091174</v>
+        <v>462081.8531025457</v>
       </c>
       <c r="O3" t="n">
-        <v>490648.4986293645</v>
+        <v>490636.5176695916</v>
       </c>
       <c r="P3" t="n">
-        <v>1838.69231077327</v>
+        <v>1838.693760353455</v>
       </c>
       <c r="Q3" t="n">
-        <v>-342777.7087453131</v>
+        <v>-342760.2180497156</v>
       </c>
       <c r="R3" t="n">
-        <v>948.059967048864</v>
+        <v>948.0362344570839</v>
       </c>
       <c r="S3" t="n">
-        <v>1066.24663035286</v>
+        <v>1066.20252730009</v>
       </c>
       <c r="T3" t="n">
-        <v>1.12466159041805</v>
+        <v>1.124643224117565</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9093831190317795</v>
+        <v>0.9094078177112328</v>
       </c>
       <c r="V3" t="n">
-        <v>171.1100850911274</v>
+        <v>171.1098753647739</v>
       </c>
       <c r="W3" t="n">
-        <v>2857290.565866986</v>
+        <v>2856044.923089905</v>
       </c>
       <c r="X3" t="n">
-        <v>3.499819066166869e-07</v>
+        <v>3.501345486254178e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>2540578.063846652</v>
+        <v>2539511.96418834</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.936112077130645e-07</v>
+        <v>3.937764476410382e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003164758053624418</v>
+        <v>0.003164520545126477</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.039204973153515e-05</v>
+        <v>2.039062663993652e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02811858515351782</v>
+        <v>0.02811637211638065</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.146670114868681</v>
+        <v>3.14499988367545</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>2786661.134696331</v>
+        <v>2785428.06558027</v>
       </c>
       <c r="AH3" t="n">
-        <v>97.58952243095221</v>
+        <v>97.54721716447152</v>
       </c>
       <c r="AI3" t="n">
-        <v>97.58952243095221</v>
+        <v>97.54721716447152</v>
       </c>
       <c r="AJ3" t="n">
-        <v>462093.5773091174</v>
+        <v>462081.8531025457</v>
       </c>
       <c r="AK3" t="n">
-        <v>490648.4986293645</v>
+        <v>490636.5176695916</v>
       </c>
       <c r="AL3" t="n">
-        <v>1838.69231077327</v>
+        <v>1838.693760353455</v>
       </c>
       <c r="AM3" t="n">
-        <v>948.059967048864</v>
+        <v>948.0362344570839</v>
       </c>
       <c r="AN3" t="n">
-        <v>1066.24663035286</v>
+        <v>1066.20252730009</v>
       </c>
       <c r="AO3" t="n">
-        <v>171.1100850911274</v>
+        <v>171.1098753647739</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.9093831190317795</v>
+        <v>0.9094078177112328</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.039204973153515e-05</v>
+        <v>2.039062663993652e-05</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.02811858515351782</v>
+        <v>0.02811637211638065</v>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
@@ -1947,102 +1947,102 @@
       </c>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="n">
-        <v>462.9273121629154</v>
+        <v>462.9269869375084</v>
       </c>
       <c r="AW3" t="n">
-        <v>3562950.636844302</v>
+        <v>3562867.3899677</v>
       </c>
       <c r="AX3" t="n">
-        <v>124.0561930398347</v>
+        <v>124.0531091973666</v>
       </c>
       <c r="AY3" t="n">
-        <v>468965.8530156869</v>
+        <v>468965.8101107536</v>
       </c>
       <c r="AZ3" t="n">
-        <v>497686.310652979</v>
+        <v>497686.3106529788</v>
       </c>
       <c r="BA3" t="n">
-        <v>1838.692310773269</v>
+        <v>1838.693760353455</v>
       </c>
       <c r="BB3" t="n">
-        <v>-353494.5786679107</v>
+        <v>-353494.6517282434</v>
       </c>
       <c r="BC3" t="n">
-        <v>961.8197925965275</v>
+        <v>961.8189973305093</v>
       </c>
       <c r="BD3" t="n">
-        <v>1092.587248908932</v>
+        <v>1092.584741811959</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.135958375278788</v>
+        <v>1.13595670790906</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.8955762431372412</v>
+        <v>0.895578210201569</v>
       </c>
       <c r="BG3" t="n">
-        <v>171.4468276035726</v>
+        <v>171.4469841623288</v>
       </c>
       <c r="BH3" t="n">
-        <v>3646509.561259492</v>
+        <v>3646425.574295284</v>
       </c>
       <c r="BI3" t="n">
-        <v>2.742348492991756e-07</v>
+        <v>2.742411656635175e-07</v>
       </c>
       <c r="BJ3" t="n">
-        <v>3210073.22153381</v>
+        <v>3210003.998310119</v>
       </c>
       <c r="BK3" t="n">
-        <v>3.115193738547149e-07</v>
+        <v>3.115260917202726e-07</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.003304039199726039</v>
+        <v>0.003304013292315215</v>
       </c>
       <c r="BM3" t="n">
-        <v>2.129511678122448e-05</v>
+        <v>2.129503813893761e-05</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.02946792516800589</v>
+        <v>0.02946783880825946</v>
       </c>
       <c r="BO3" t="n">
-        <v>8.028534606518111</v>
+        <v>8.02441467650069</v>
       </c>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="n">
-        <v>3562950.636844302</v>
+        <v>3562867.3899677</v>
       </c>
       <c r="BS3" t="n">
-        <v>124.0561930398347</v>
+        <v>124.0531091973666</v>
       </c>
       <c r="BT3" t="n">
-        <v>124.0561930398347</v>
+        <v>124.0531091973666</v>
       </c>
       <c r="BU3" t="n">
-        <v>468965.8530156869</v>
+        <v>468965.8101107536</v>
       </c>
       <c r="BV3" t="n">
-        <v>497686.310652979</v>
+        <v>497686.3106529788</v>
       </c>
       <c r="BW3" t="n">
-        <v>1838.692310773269</v>
+        <v>1838.693760353455</v>
       </c>
       <c r="BX3" t="n">
-        <v>961.8197925965275</v>
+        <v>961.8189973305093</v>
       </c>
       <c r="BY3" t="n">
-        <v>1092.587248908932</v>
+        <v>1092.584741811959</v>
       </c>
       <c r="BZ3" t="n">
-        <v>171.4468276035726</v>
+        <v>171.4469841623288</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.8955762431372412</v>
+        <v>0.895578210201569</v>
       </c>
       <c r="CB3" t="n">
-        <v>2.129511678122448e-05</v>
+        <v>2.129503813893761e-05</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.02946792516800589</v>
+        <v>0.02946783880825946</v>
       </c>
       <c r="CD3" t="inlineStr">
         <is>
@@ -2054,102 +2054,102 @@
       </c>
       <c r="CF3" t="inlineStr"/>
       <c r="CG3" t="n">
-        <v>462.9273121629154</v>
+        <v>462.9269869375084</v>
       </c>
       <c r="CH3" t="n">
-        <v>3562950.636844302</v>
+        <v>3562867.3899677</v>
       </c>
       <c r="CI3" t="n">
-        <v>124.0561930398347</v>
+        <v>124.0531091973666</v>
       </c>
       <c r="CJ3" t="n">
-        <v>468965.8530156869</v>
+        <v>468965.8101107536</v>
       </c>
       <c r="CK3" t="n">
-        <v>497686.310652979</v>
+        <v>497686.3106529788</v>
       </c>
       <c r="CL3" t="n">
-        <v>1838.692310773269</v>
+        <v>1838.693760353455</v>
       </c>
       <c r="CM3" t="n">
-        <v>-353494.5786679107</v>
+        <v>-353494.6517282434</v>
       </c>
       <c r="CN3" t="n">
-        <v>961.8197925965275</v>
+        <v>961.8189973305093</v>
       </c>
       <c r="CO3" t="n">
-        <v>1092.587248908932</v>
+        <v>1092.584741811959</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.135958375278788</v>
+        <v>1.13595670790906</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.8955762431372412</v>
+        <v>0.895578210201569</v>
       </c>
       <c r="CR3" t="n">
-        <v>171.4468276035726</v>
+        <v>171.4469841623288</v>
       </c>
       <c r="CS3" t="n">
-        <v>3646509.561259492</v>
+        <v>3646425.574295284</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.742348492991756e-07</v>
+        <v>2.742411656635175e-07</v>
       </c>
       <c r="CU3" t="n">
-        <v>3210073.22153381</v>
+        <v>3210003.998310119</v>
       </c>
       <c r="CV3" t="n">
-        <v>3.115193738547149e-07</v>
+        <v>3.115260917202726e-07</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003304039199726039</v>
+        <v>0.003304013292315215</v>
       </c>
       <c r="CX3" t="n">
-        <v>2.129511678122448e-05</v>
+        <v>2.129503813893761e-05</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02946792516800589</v>
+        <v>0.02946783880825946</v>
       </c>
       <c r="CZ3" t="n">
-        <v>8.028534606518111</v>
+        <v>8.02441467650069</v>
       </c>
       <c r="DA3" t="inlineStr"/>
       <c r="DB3" t="inlineStr"/>
       <c r="DC3" t="n">
-        <v>3562950.636844302</v>
+        <v>3562867.3899677</v>
       </c>
       <c r="DD3" t="n">
-        <v>124.0561930398347</v>
+        <v>124.0531091973666</v>
       </c>
       <c r="DE3" t="n">
-        <v>124.0561930398347</v>
+        <v>124.0531091973666</v>
       </c>
       <c r="DF3" t="n">
-        <v>468965.8530156869</v>
+        <v>468965.8101107536</v>
       </c>
       <c r="DG3" t="n">
-        <v>497686.310652979</v>
+        <v>497686.3106529788</v>
       </c>
       <c r="DH3" t="n">
-        <v>1838.692310773269</v>
+        <v>1838.693760353455</v>
       </c>
       <c r="DI3" t="n">
-        <v>961.8197925965275</v>
+        <v>961.8189973305093</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1092.587248908932</v>
+        <v>1092.584741811959</v>
       </c>
       <c r="DK3" t="n">
-        <v>171.4468276035726</v>
+        <v>171.4469841623288</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.8955762431372412</v>
+        <v>0.895578210201569</v>
       </c>
       <c r="DM3" t="n">
-        <v>2.129511678122448e-05</v>
+        <v>2.129503813893761e-05</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.02946792516800589</v>
+        <v>0.02946783880825946</v>
       </c>
       <c r="DO3" t="inlineStr">
         <is>
@@ -2161,40 +2161,40 @@
       </c>
       <c r="DQ3" t="inlineStr"/>
       <c r="DR3" t="n">
-        <v>0.6933591034768029</v>
+        <v>0.6939498799238774</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.6933591034768029</v>
+        <v>0.6939498799238772</v>
       </c>
       <c r="DT3" t="n">
-        <v>5895922.049525524</v>
+        <v>5899786.885066339</v>
       </c>
       <c r="DU3" t="n">
-        <v>10.66000017013204</v>
+        <v>10.66000009028684</v>
       </c>
       <c r="DV3" t="n">
         <v>497686.3106530505</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.01980004381651392</v>
+        <v>0.01979661428087271</v>
       </c>
       <c r="DX3" t="n">
         <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.01172080958049171</v>
+        <v>0.01172087312291525</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.04196894844846946</v>
+        <v>0.04197075732495735</v>
       </c>
       <c r="EA3" t="n">
         <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.0734898018454751</v>
+        <v>0.07348824472874532</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.838855456792743e-09</v>
+        <v>-5.318693667433205e-08</v>
       </c>
       <c r="ED3" t="n">
         <v>0</v>
@@ -2205,129 +2205,129 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>185.7269854854344</v>
+        <v>185.8984457246473</v>
       </c>
       <c r="C4" t="n">
-        <v>118.6407351946266</v>
+        <v>118.7416774631801</v>
       </c>
       <c r="D4" t="n">
-        <v>22.59486093302263</v>
+        <v>22.61462422278937</v>
       </c>
       <c r="E4" t="n">
-        <v>116.4692934079145</v>
+        <v>116.5682835853386</v>
       </c>
       <c r="F4" t="n">
-        <v>79.02108454731514</v>
+        <v>79.02081958706566</v>
       </c>
       <c r="G4" t="n">
-        <v>72.85022753902139</v>
+        <v>72.92525358886864</v>
       </c>
       <c r="H4" t="n">
-        <v>22.59486093302263</v>
+        <v>22.61462422278937</v>
       </c>
       <c r="I4" t="n">
-        <v>-69.25769207751988</v>
+        <v>-69.33016213930865</v>
       </c>
       <c r="J4" t="n">
-        <v>-71.93142939380483</v>
+        <v>-71.93432718509764</v>
       </c>
       <c r="K4" t="n">
-        <v>453.2711658667434</v>
+        <v>453.2547799363314</v>
       </c>
       <c r="L4" t="n">
-        <v>2786661.134695223</v>
+        <v>2785428.065580274</v>
       </c>
       <c r="M4" t="n">
-        <v>97.58952243095351</v>
+        <v>97.54721716447104</v>
       </c>
       <c r="N4" t="n">
-        <v>462093.5773089828</v>
+        <v>462081.8531025478</v>
       </c>
       <c r="O4" t="n">
-        <v>490648.4986292182</v>
+        <v>490636.5176695939</v>
       </c>
       <c r="P4" t="n">
-        <v>1838.692310772972</v>
+        <v>1838.69376035346</v>
       </c>
       <c r="Q4" t="n">
-        <v>-342777.7087450634</v>
+        <v>-342760.2180497192</v>
       </c>
       <c r="R4" t="n">
-        <v>948.0599670487237</v>
+        <v>948.036234457086</v>
       </c>
       <c r="S4" t="n">
-        <v>1066.24663035276</v>
+        <v>1066.202527300092</v>
       </c>
       <c r="T4" t="n">
-        <v>1.124661590418112</v>
+        <v>1.124643224117564</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9093831190316906</v>
+        <v>0.9094078177112345</v>
       </c>
       <c r="V4" t="n">
-        <v>171.1100850910873</v>
+        <v>171.1098753647746</v>
       </c>
       <c r="W4" t="n">
-        <v>2857290.565865685</v>
+        <v>2856044.923089912</v>
       </c>
       <c r="X4" t="n">
-        <v>3.499819066168462e-07</v>
+        <v>3.50134548625417e-07</v>
       </c>
       <c r="Y4" t="n">
-        <v>2540578.063845356</v>
+        <v>2539511.964188349</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.936112077132653e-07</v>
+        <v>3.937764476410369e-07</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.003164758053626289</v>
+        <v>0.003164520545126445</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.039204973152943e-05</v>
+        <v>2.039062663993693e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.02811858515350499</v>
+        <v>0.02811637211638083</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.146670114865183</v>
+        <v>3.144999883675498</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>2786661.134695223</v>
+        <v>2785428.065580274</v>
       </c>
       <c r="AH4" t="n">
-        <v>97.58952243095351</v>
+        <v>97.54721716447104</v>
       </c>
       <c r="AI4" t="n">
-        <v>97.58952243095351</v>
+        <v>97.54721716447104</v>
       </c>
       <c r="AJ4" t="n">
-        <v>462093.5773089828</v>
+        <v>462081.8531025478</v>
       </c>
       <c r="AK4" t="n">
-        <v>490648.4986292182</v>
+        <v>490636.5176695939</v>
       </c>
       <c r="AL4" t="n">
-        <v>1838.692310772972</v>
+        <v>1838.69376035346</v>
       </c>
       <c r="AM4" t="n">
-        <v>948.0599670487237</v>
+        <v>948.036234457086</v>
       </c>
       <c r="AN4" t="n">
-        <v>1066.24663035276</v>
+        <v>1066.202527300092</v>
       </c>
       <c r="AO4" t="n">
-        <v>171.1100850910873</v>
+        <v>171.1098753647746</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.9093831190316906</v>
+        <v>0.9094078177112345</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.039204973152943e-05</v>
+        <v>2.039062663993693e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.02811858515350499</v>
+        <v>0.02811637211638083</v>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
@@ -2339,102 +2339,102 @@
       </c>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="n">
-        <v>462.9273121628818</v>
+        <v>462.9269869376073</v>
       </c>
       <c r="AW4" t="n">
-        <v>3562950.636852475</v>
+        <v>3562867.389976297</v>
       </c>
       <c r="AX4" t="n">
-        <v>124.0561930401644</v>
+        <v>124.0531091976582</v>
       </c>
       <c r="AY4" t="n">
-        <v>468965.8530156256</v>
+        <v>468965.8101108233</v>
       </c>
       <c r="AZ4" t="n">
-        <v>497686.3106529073</v>
+        <v>497686.3106530503</v>
       </c>
       <c r="BA4" t="n">
-        <v>1838.692310772971</v>
+        <v>1838.69376035346</v>
       </c>
       <c r="BB4" t="n">
-        <v>-353494.5786677827</v>
+        <v>-353494.6517283558</v>
       </c>
       <c r="BC4" t="n">
-        <v>961.8197925965482</v>
+        <v>961.8189973306487</v>
       </c>
       <c r="BD4" t="n">
-        <v>1092.587248909161</v>
+        <v>1092.584741812235</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.135958375279001</v>
+        <v>1.135956707909183</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.8955762431369805</v>
+        <v>0.8955782102014336</v>
       </c>
       <c r="BG4" t="n">
-        <v>171.4468276035354</v>
+        <v>171.4469841623345</v>
       </c>
       <c r="BH4" t="n">
-        <v>3646509.5612676</v>
+        <v>3646425.574304095</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.742348492985659e-07</v>
+        <v>2.742411656628548e-07</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3210073.221540345</v>
+        <v>3210003.998317529</v>
       </c>
       <c r="BK4" t="n">
-        <v>3.115193738540807e-07</v>
+        <v>3.115260917195535e-07</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.003304039199729813</v>
+        <v>0.003304013292316662</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.129511678123073e-05</v>
+        <v>2.129503813894798e-05</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0294679251680089</v>
+        <v>0.02946783880827383</v>
       </c>
       <c r="BO4" t="n">
-        <v>8.028534606919878</v>
+        <v>8.024414676925669</v>
       </c>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="n">
-        <v>3562950.636852475</v>
+        <v>3562867.389976297</v>
       </c>
       <c r="BS4" t="n">
-        <v>124.0561930401644</v>
+        <v>124.0531091976582</v>
       </c>
       <c r="BT4" t="n">
-        <v>124.0561930401644</v>
+        <v>124.0531091976582</v>
       </c>
       <c r="BU4" t="n">
-        <v>468965.8530156256</v>
+        <v>468965.8101108233</v>
       </c>
       <c r="BV4" t="n">
-        <v>497686.3106529073</v>
+        <v>497686.3106530503</v>
       </c>
       <c r="BW4" t="n">
-        <v>1838.692310772971</v>
+        <v>1838.69376035346</v>
       </c>
       <c r="BX4" t="n">
-        <v>961.8197925965482</v>
+        <v>961.8189973306487</v>
       </c>
       <c r="BY4" t="n">
-        <v>1092.587248909161</v>
+        <v>1092.584741812235</v>
       </c>
       <c r="BZ4" t="n">
-        <v>171.4468276035354</v>
+        <v>171.4469841623345</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.8955762431369805</v>
+        <v>0.8955782102014336</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.129511678123073e-05</v>
+        <v>2.129503813894798e-05</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0294679251680089</v>
+        <v>0.02946783880827383</v>
       </c>
       <c r="CD4" t="inlineStr">
         <is>
@@ -2446,102 +2446,102 @@
       </c>
       <c r="CF4" t="inlineStr"/>
       <c r="CG4" t="n">
-        <v>456.8670989261845</v>
+        <v>456.8579207065139</v>
       </c>
       <c r="CH4" t="n">
-        <v>3057715.885893652</v>
+        <v>3056949.415442796</v>
       </c>
       <c r="CI4" t="n">
-        <v>106.8422115224492</v>
+        <v>106.81585119916</v>
       </c>
       <c r="CJ4" t="n">
-        <v>464683.0892375571</v>
+        <v>464676.6897057403</v>
       </c>
       <c r="CK4" t="n">
-        <v>493302.0764554618</v>
+        <v>493295.5639750943</v>
       </c>
       <c r="CL4" t="n">
-        <v>1838.692310772972</v>
+        <v>1838.69376035346</v>
       </c>
       <c r="CM4" t="n">
-        <v>-346735.9453852685</v>
+        <v>-346726.2441960286</v>
       </c>
       <c r="CN4" t="n">
-        <v>953.1960415863164</v>
+        <v>953.1826297294683</v>
       </c>
       <c r="CO4" t="n">
-        <v>1075.791138820839</v>
+        <v>1075.764964952248</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.12861477795323</v>
+        <v>1.128603198798924</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.90424973514617</v>
+        <v>0.9042643326018582</v>
       </c>
       <c r="CR4" t="n">
-        <v>171.2067265336125</v>
+        <v>171.2066241177803</v>
       </c>
       <c r="CS4" t="n">
-        <v>3131731.46817248</v>
+        <v>3130955.055268454</v>
       </c>
       <c r="CT4" t="n">
-        <v>3.193121792730044e-07</v>
+        <v>3.193913621715206e-07</v>
       </c>
       <c r="CU4" t="n">
-        <v>2774845.349670105</v>
+        <v>2774185.877375205</v>
       </c>
       <c r="CV4" t="n">
-        <v>3.603804443079639e-07</v>
+        <v>3.604661130155236e-07</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.003214353612700892</v>
+        <v>0.003214204023560647</v>
       </c>
       <c r="CX4" t="n">
-        <v>2.070815687562728e-05</v>
+        <v>2.07072848841277e-05</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.02860617330842331</v>
+        <v>0.02860487426302753</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3.622024986330358</v>
+        <v>3.620288047506204</v>
       </c>
       <c r="DA4" t="inlineStr"/>
       <c r="DB4" t="inlineStr"/>
       <c r="DC4" t="n">
-        <v>3057715.885893652</v>
+        <v>3056949.415442796</v>
       </c>
       <c r="DD4" t="n">
-        <v>106.8422115224492</v>
+        <v>106.81585119916</v>
       </c>
       <c r="DE4" t="n">
-        <v>106.8422115224492</v>
+        <v>106.81585119916</v>
       </c>
       <c r="DF4" t="n">
-        <v>464683.0892375571</v>
+        <v>464676.6897057403</v>
       </c>
       <c r="DG4" t="n">
-        <v>493302.0764554618</v>
+        <v>493295.5639750943</v>
       </c>
       <c r="DH4" t="n">
-        <v>1838.692310772972</v>
+        <v>1838.69376035346</v>
       </c>
       <c r="DI4" t="n">
-        <v>953.1960415863164</v>
+        <v>953.1826297294683</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1075.791138820839</v>
+        <v>1075.764964952248</v>
       </c>
       <c r="DK4" t="n">
-        <v>171.2067265336125</v>
+        <v>171.2066241177803</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.90424973514617</v>
+        <v>0.9042643326018582</v>
       </c>
       <c r="DM4" t="n">
-        <v>2.070815687562728e-05</v>
+        <v>2.07072848841277e-05</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.02860617330842331</v>
+        <v>0.02860487426302753</v>
       </c>
       <c r="DO4" t="inlineStr">
         <is>
@@ -2553,19 +2553,19 @@
       </c>
       <c r="DQ4" t="inlineStr"/>
       <c r="DR4" t="n">
-        <v>0.693359103476983</v>
+        <v>0.6939498799239077</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.4257506359151239</v>
+        <v>0.4261896248443026</v>
       </c>
       <c r="DT4" t="n">
-        <v>2941179.927099155</v>
+        <v>2933521.057144407</v>
       </c>
       <c r="DU4" t="n">
-        <v>10.66000017013219</v>
+        <v>10.66000009028678</v>
       </c>
       <c r="DV4" t="n">
-        <v>476054.8198867084</v>
+        <v>476016.4479136745</v>
       </c>
       <c r="DW4" t="inlineStr"/>
       <c r="DX4" t="inlineStr"/>
@@ -2581,129 +2581,129 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>185.7269854854344</v>
+        <v>185.8984457246472</v>
       </c>
       <c r="C5" t="n">
-        <v>37.6538362427284</v>
+        <v>37.63946141563277</v>
       </c>
       <c r="D5" t="n">
-        <v>37.61870154095219</v>
+        <v>37.59474171754366</v>
       </c>
       <c r="E5" t="n">
-        <v>1.626246650102019</v>
+        <v>1.834243945087593</v>
       </c>
       <c r="F5" t="n">
-        <v>2.475340382755529</v>
+        <v>2.7932407538101</v>
       </c>
       <c r="G5" t="n">
-        <v>187.9048928190602</v>
+        <v>187.8642993800452</v>
       </c>
       <c r="H5" t="n">
-        <v>37.61870154095219</v>
+        <v>37.59474171754366</v>
       </c>
       <c r="I5" t="n">
-        <v>-184.1007388353324</v>
+        <v>-184.0642017795596</v>
       </c>
       <c r="J5" t="n">
-        <v>-78.45130107866638</v>
+        <v>-78.45622963756196</v>
       </c>
       <c r="K5" t="n">
-        <v>433.5390911433603</v>
+        <v>433.5401858340018</v>
       </c>
       <c r="L5" t="n">
-        <v>1585000.013068741</v>
+        <v>1584999.942589634</v>
       </c>
       <c r="M5" t="n">
-        <v>56.29267838384589</v>
+        <v>56.29249513469492</v>
       </c>
       <c r="N5" t="n">
-        <v>447491.5370999126</v>
+        <v>447492.5610958613</v>
       </c>
       <c r="O5" t="n">
-        <v>475647.9520827105</v>
+        <v>475649.0664843167</v>
       </c>
       <c r="P5" t="n">
-        <v>1840.967005726803</v>
+        <v>1840.969579086932</v>
       </c>
       <c r="Q5" t="n">
-        <v>-322483.2104050012</v>
+        <v>-322485.2269477759</v>
       </c>
       <c r="R5" t="n">
-        <v>919.4338460015102</v>
+        <v>919.4349984157293</v>
       </c>
       <c r="S5" t="n">
-        <v>1017.6962315835</v>
+        <v>1017.69709839556</v>
       </c>
       <c r="T5" t="n">
-        <v>1.106872708688416</v>
+        <v>1.106872264106919</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9375039534055785</v>
+        <v>0.9375045963692086</v>
       </c>
       <c r="V5" t="n">
-        <v>170.923957038721</v>
+        <v>170.9242602784666</v>
       </c>
       <c r="W5" t="n">
-        <v>1644590.547745029</v>
+        <v>1644591.029511991</v>
       </c>
       <c r="X5" t="n">
-        <v>6.080540845690404e-07</v>
+        <v>6.080539064455043e-07</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485799.166277917</v>
+        <v>1485800.198308276</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.73038471615989e-07</v>
+        <v>6.730380041263922e-07</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.002930389986183424</v>
+        <v>0.002930376240589836</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.894864477612411e-05</v>
+        <v>1.894868428106256e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02568335436178383</v>
+        <v>0.02568344865301074</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.254022372326611</v>
+        <v>2.254033033809874</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
-        <v>1585000.013068741</v>
+        <v>1584999.942589634</v>
       </c>
       <c r="AH5" t="n">
-        <v>56.29267838384589</v>
+        <v>56.29249513469492</v>
       </c>
       <c r="AI5" t="n">
-        <v>56.29267838384589</v>
+        <v>56.29249513469492</v>
       </c>
       <c r="AJ5" t="n">
-        <v>447491.5370999126</v>
+        <v>447492.5610958613</v>
       </c>
       <c r="AK5" t="n">
-        <v>475647.9520827105</v>
+        <v>475649.0664843167</v>
       </c>
       <c r="AL5" t="n">
-        <v>1840.967005726803</v>
+        <v>1840.969579086932</v>
       </c>
       <c r="AM5" t="n">
-        <v>919.4338460015102</v>
+        <v>919.4349984157293</v>
       </c>
       <c r="AN5" t="n">
-        <v>1017.6962315835</v>
+        <v>1017.69709839556</v>
       </c>
       <c r="AO5" t="n">
-        <v>170.923957038721</v>
+        <v>170.9242602784666</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.9375039534055785</v>
+        <v>0.9375045963692086</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.894864477612411e-05</v>
+        <v>1.894868428106256e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.02568335436178383</v>
+        <v>0.02568344865301074</v>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
@@ -2715,102 +2715,102 @@
       </c>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="n">
-        <v>434.4251852488196</v>
+        <v>434.4255999549131</v>
       </c>
       <c r="AW5" t="n">
-        <v>1625394.263480629</v>
+        <v>1625362.848452482</v>
       </c>
       <c r="AX5" t="n">
-        <v>57.67510469093092</v>
+        <v>57.67384398676488</v>
       </c>
       <c r="AY5" t="n">
-        <v>448174.95377666</v>
+        <v>448175.455681685</v>
       </c>
       <c r="AZ5" t="n">
-        <v>476356.8577747677</v>
+        <v>476357.431012226</v>
       </c>
       <c r="BA5" t="n">
-        <v>1840.967005726644</v>
+        <v>1840.969579086774</v>
       </c>
       <c r="BB5" t="n">
-        <v>-323405.5747249946</v>
+        <v>-323406.8828812895</v>
       </c>
       <c r="BC5" t="n">
-        <v>920.6978234389131</v>
+        <v>920.6980003764736</v>
       </c>
       <c r="BD5" t="n">
-        <v>1019.61912689835</v>
+        <v>1019.618500116836</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.107441661032666</v>
+        <v>1.107440767439392</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.9364386913406459</v>
+        <v>0.9364401676670268</v>
       </c>
       <c r="BG5" t="n">
-        <v>170.9518683613519</v>
+        <v>170.9521521095185</v>
       </c>
       <c r="BH5" t="n">
-        <v>1685528.478804902</v>
+        <v>1685497.230511092</v>
       </c>
       <c r="BI5" t="n">
-        <v>5.932857335694703e-07</v>
+        <v>5.932967327966305e-07</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1522002.050413367</v>
+        <v>1521975.061843057</v>
       </c>
       <c r="BK5" t="n">
-        <v>6.570293382511581e-07</v>
+        <v>6.570409890875846e-07</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.002937473752266581</v>
+        <v>0.002937454356195751</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.900266402401556e-05</v>
+        <v>1.900266171678829e-05</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.02578256199850107</v>
+        <v>0.02578257991814195</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.272726193506659</v>
+        <v>2.272722331921362</v>
       </c>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="n">
-        <v>1625394.263480629</v>
+        <v>1625362.848452482</v>
       </c>
       <c r="BS5" t="n">
-        <v>57.67510469093092</v>
+        <v>57.67384398676488</v>
       </c>
       <c r="BT5" t="n">
-        <v>57.67510469093092</v>
+        <v>57.67384398676488</v>
       </c>
       <c r="BU5" t="n">
-        <v>448174.95377666</v>
+        <v>448175.455681685</v>
       </c>
       <c r="BV5" t="n">
-        <v>476356.8577747677</v>
+        <v>476357.431012226</v>
       </c>
       <c r="BW5" t="n">
-        <v>1840.967005726644</v>
+        <v>1840.969579086774</v>
       </c>
       <c r="BX5" t="n">
-        <v>920.6978234389131</v>
+        <v>920.6980003764736</v>
       </c>
       <c r="BY5" t="n">
-        <v>1019.61912689835</v>
+        <v>1019.618500116836</v>
       </c>
       <c r="BZ5" t="n">
-        <v>170.9518683613519</v>
+        <v>170.9521521095185</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.9364386913406459</v>
+        <v>0.9364401676670268</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.900266402401556e-05</v>
+        <v>1.900266171678829e-05</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.02578256199850107</v>
+        <v>0.02578257991814195</v>
       </c>
       <c r="CD5" t="inlineStr">
         <is>
@@ -2822,102 +2822,102 @@
       </c>
       <c r="CF5" t="inlineStr"/>
       <c r="CG5" t="n">
-        <v>456.422700920908</v>
+        <v>456.4133982321016</v>
       </c>
       <c r="CH5" t="n">
-        <v>2948845.213964269</v>
+        <v>2948055.01949137</v>
       </c>
       <c r="CI5" t="n">
-        <v>102.8097167581872</v>
+        <v>102.7824840702054</v>
       </c>
       <c r="CJ5" t="n">
-        <v>464619.522831663</v>
+        <v>464613.0988045688</v>
       </c>
       <c r="CK5" t="n">
-        <v>493302.0764554618</v>
+        <v>493295.5639751683</v>
       </c>
       <c r="CL5" t="n">
-        <v>1840.967005726646</v>
+        <v>1840.969579086775</v>
       </c>
       <c r="CM5" t="n">
-        <v>-346957.0566045704</v>
+        <v>-346947.6176577482</v>
       </c>
       <c r="CN5" t="n">
-        <v>952.0709739740486</v>
+        <v>952.0571922937914</v>
       </c>
       <c r="CO5" t="n">
-        <v>1072.422932497658</v>
+        <v>1072.395903301372</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.126410700266648</v>
+        <v>1.126398615526078</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.9071405710098366</v>
+        <v>0.9071562629314389</v>
       </c>
       <c r="CR5" t="n">
-        <v>171.4722239592743</v>
+        <v>171.4722656390188</v>
       </c>
       <c r="CS5" t="n">
-        <v>3022885.684159829</v>
+        <v>3022086.438118747</v>
       </c>
       <c r="CT5" t="n">
-        <v>3.308097309931641e-07</v>
+        <v>3.308972196779724e-07</v>
       </c>
       <c r="CU5" t="n">
-        <v>2683644.325683554</v>
+        <v>2682963.558781806</v>
       </c>
       <c r="CV5" t="n">
-        <v>3.726276207430315e-07</v>
+        <v>3.727221701266966e-07</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.003178319597851342</v>
+        <v>0.003178159236650231</v>
       </c>
       <c r="CX5" t="n">
-        <v>2.061241255071784e-05</v>
+        <v>2.061152974987969e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.02849499565103307</v>
+        <v>0.02849367518311726</v>
       </c>
       <c r="CZ5" t="n">
-        <v>3.417848086121974</v>
+        <v>3.416429365128649</v>
       </c>
       <c r="DA5" t="inlineStr"/>
       <c r="DB5" t="inlineStr"/>
       <c r="DC5" t="n">
-        <v>2948845.213964269</v>
+        <v>2948055.01949137</v>
       </c>
       <c r="DD5" t="n">
-        <v>102.8097167581872</v>
+        <v>102.7824840702054</v>
       </c>
       <c r="DE5" t="n">
-        <v>102.8097167581872</v>
+        <v>102.7824840702054</v>
       </c>
       <c r="DF5" t="n">
-        <v>464619.522831663</v>
+        <v>464613.0988045688</v>
       </c>
       <c r="DG5" t="n">
-        <v>493302.0764554618</v>
+        <v>493295.5639751683</v>
       </c>
       <c r="DH5" t="n">
-        <v>1840.967005726646</v>
+        <v>1840.969579086775</v>
       </c>
       <c r="DI5" t="n">
-        <v>952.0709739740486</v>
+        <v>952.0571922937914</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1072.422932497658</v>
+        <v>1072.395903301372</v>
       </c>
       <c r="DK5" t="n">
-        <v>171.4722239592743</v>
+        <v>171.4722656390188</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.9071405710098366</v>
+        <v>0.9071562629314389</v>
       </c>
       <c r="DM5" t="n">
-        <v>2.061241255071784e-05</v>
+        <v>2.061152974987969e-05</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.02849499565103307</v>
+        <v>0.02849367518311726</v>
       </c>
       <c r="DO5" t="inlineStr">
         <is>
@@ -2929,40 +2929,40 @@
       </c>
       <c r="DQ5" t="inlineStr"/>
       <c r="DR5" t="n">
-        <v>0.2202958373716934</v>
+        <v>0.2202113459745929</v>
       </c>
       <c r="DS5" t="n">
-        <v>1.099347897594556</v>
+        <v>1.099108453498528</v>
       </c>
       <c r="DT5" t="n">
-        <v>4709341.849148807</v>
+        <v>4692914.551933986</v>
       </c>
       <c r="DU5" t="n">
-        <v>10.66000002256525</v>
+        <v>10.65999956216166</v>
       </c>
       <c r="DV5" t="n">
-        <v>476054.8198867084</v>
+        <v>476016.4479136745</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.03281173715281153</v>
+        <v>0.03279834894491212</v>
       </c>
       <c r="DX5" t="n">
         <v>0</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.01172194538417859</v>
+        <v>0.01172193291539547</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.00898903580870326</v>
+        <v>0.009105137218384161</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0263037632265502</v>
+        <v>0.02626502671266162</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.07982648157224359</v>
+        <v>0.07989044579135338</v>
       </c>
       <c r="EC5" t="n">
-        <v>-2.140032434178041e-07</v>
+        <v>-5.001797954429232e-07</v>
       </c>
       <c r="ED5" t="n">
         <v>0</v>
@@ -3729,150 +3729,150 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01980004381651392</v>
+        <v>0.01979661428087271</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01172080958049171</v>
+        <v>0.01172087312291525</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04196894844846946</v>
+        <v>0.04197075732495735</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0734898018454751</v>
+        <v>0.07348824472874532</v>
       </c>
       <c r="H2" t="n">
-        <v>1.838855456792743e-09</v>
+        <v>-5.318693667433205e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>118.5597259550003</v>
+        <v>118.6604775584683</v>
       </c>
       <c r="K2" t="n">
-        <v>22.21587730637121</v>
+        <v>22.23475627427575</v>
       </c>
       <c r="L2" t="n">
-        <v>116.459707255484</v>
+        <v>116.558674271061</v>
       </c>
       <c r="M2" t="n">
-        <v>79.20000000000002</v>
+        <v>79.19999999999996</v>
       </c>
       <c r="N2" t="n">
-        <v>118.5597259550003</v>
+        <v>118.6604775584683</v>
       </c>
       <c r="O2" t="n">
-        <v>22.21587730637121</v>
+        <v>22.23475627427575</v>
       </c>
       <c r="P2" t="n">
-        <v>116.459707255484</v>
+        <v>116.558674271061</v>
       </c>
       <c r="Q2" t="n">
-        <v>79.20000000000002</v>
+        <v>79.19999999999996</v>
       </c>
       <c r="R2" t="n">
-        <v>453.4674988769447</v>
+        <v>453.45135932867</v>
       </c>
       <c r="S2" t="n">
-        <v>2831548.010050902</v>
+        <v>2830362.147687534</v>
       </c>
       <c r="T2" t="n">
-        <v>99.25431368764492</v>
+        <v>99.21375561261672</v>
       </c>
       <c r="U2" t="n">
-        <v>462129.8952782032</v>
+        <v>462118.2355340851</v>
       </c>
       <c r="V2" t="n">
-        <v>490658.1063437881</v>
+        <v>490646.1561859226</v>
       </c>
       <c r="W2" t="n">
         <v>1837.707528152812</v>
       </c>
       <c r="X2" t="n">
-        <v>-342682.530115</v>
+        <v>-342664.8205035001</v>
       </c>
       <c r="Y2" t="n">
-        <v>948.5497546943964</v>
+        <v>948.526647005694</v>
       </c>
       <c r="Z2" t="n">
-        <v>1067.665980566446</v>
+        <v>1067.623479358981</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.125577203813022</v>
+        <v>1.125559817142989</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9081391249928659</v>
+        <v>0.9081622030206392</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.9932491693386</v>
+        <v>170.9928641442837</v>
       </c>
       <c r="AD2" t="n">
-        <v>2902066.234283884</v>
+        <v>2900867.3054551</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.445820733470478e-07</v>
+        <v>3.447244891620838e-07</v>
       </c>
       <c r="AF2" t="n">
-        <v>2578291.586265964</v>
+        <v>2577266.229011603</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.878537266020636e-07</v>
+        <v>3.880080329859853e-07</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003179955621716659</v>
+        <v>0.003179735931653935</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.043096046810692e-05</v>
+        <v>2.042957265371266e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02816511994251491</v>
+        <v>0.02816295585565864</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.203345775658089</v>
+        <v>3.201613813168626</v>
       </c>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="n">
-        <v>2831548.010050902</v>
+        <v>2830362.147687534</v>
       </c>
       <c r="AO2" t="n">
-        <v>99.25431368764492</v>
+        <v>99.21375561261672</v>
       </c>
       <c r="AP2" t="n">
-        <v>99.25431368764492</v>
+        <v>99.21375561261672</v>
       </c>
       <c r="AQ2" t="n">
-        <v>462129.8952782032</v>
+        <v>462118.2355340851</v>
       </c>
       <c r="AR2" t="n">
-        <v>490658.1063437881</v>
+        <v>490646.1561859226</v>
       </c>
       <c r="AS2" t="n">
         <v>1837.707528152812</v>
       </c>
       <c r="AT2" t="n">
-        <v>948.5497546943964</v>
+        <v>948.526647005694</v>
       </c>
       <c r="AU2" t="n">
-        <v>1067.665980566446</v>
+        <v>1067.623479358981</v>
       </c>
       <c r="AV2" t="n">
-        <v>170.9932491693386</v>
+        <v>170.9928641442837</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.9081391249928659</v>
+        <v>0.9081622030206392</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.043096046810692e-05</v>
+        <v>2.042957265371266e-05</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.02816511994251491</v>
+        <v>0.02816295585565864</v>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
@@ -4098,37 +4098,37 @@
       </c>
       <c r="DX2" t="inlineStr"/>
       <c r="DY2" t="n">
-        <v>0.01990831620277725</v>
+        <v>0.01990503029821838</v>
       </c>
       <c r="DZ2" t="n">
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.01171926198267625</v>
+        <v>0.01171932294844091</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.04195349286721551</v>
+        <v>0.04195527821286129</v>
       </c>
       <c r="EC2" t="n">
         <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.07358107105266901</v>
+        <v>0.07357963145952058</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.07358107104132414</v>
+        <v>-0.07357963145952058</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.6933591035374028</v>
+        <v>0.6939498800274063</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.6933591035374028</v>
+        <v>0.6939498800274064</v>
       </c>
       <c r="EH2" t="n">
-        <v>5980994.274455138</v>
+        <v>5985046.54008573</v>
       </c>
       <c r="EI2" t="n">
-        <v>10.66000001140312</v>
+        <v>10.6600001625375</v>
       </c>
       <c r="EJ2" t="n">
         <v>497686.3106530505</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>446.167482614168</v>
+        <v>446.8077670247294</v>
       </c>
       <c r="EM2" t="n">
-        <v>-20.45482481504649</v>
+        <v>-20.45665123722149</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.005053341098554821</v>
+        <v>0.005059829407177755</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.01071125973372314</v>
+        <v>0.01072733292376794</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.002991369580305403</v>
+        <v>0.002995745518082173</v>
       </c>
     </row>
     <row r="3">
@@ -4163,150 +4163,150 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03281173715281153</v>
+        <v>0.03279834894491212</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01172194538417859</v>
+        <v>0.01172193291539547</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00898903580870326</v>
+        <v>0.009105137218384161</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0263037632265502</v>
+        <v>0.02626502671266162</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07982648157224359</v>
+        <v>0.07989044579135338</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.140032434178041e-07</v>
+        <v>-5.001797954429232e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>185.7269854854344</v>
+        <v>185.8984457246472</v>
       </c>
       <c r="J3" t="n">
-        <v>37.31472068893063</v>
+        <v>37.38568536023401</v>
       </c>
       <c r="K3" t="n">
-        <v>32.64119739861184</v>
+        <v>32.6283441839125</v>
       </c>
       <c r="L3" t="n">
-        <v>18.08149917672102</v>
+        <v>18.25049658695784</v>
       </c>
       <c r="M3" t="n">
-        <v>28.98413701803451</v>
+        <v>29.22024284059427</v>
       </c>
       <c r="N3" t="n">
-        <v>170.7936089181915</v>
+        <v>170.7935704125221</v>
       </c>
       <c r="O3" t="n">
-        <v>32.64119739861184</v>
+        <v>32.6283441839125</v>
       </c>
       <c r="P3" t="n">
-        <v>-167.6454863087134</v>
+        <v>-167.6479491376894</v>
       </c>
       <c r="Q3" t="n">
-        <v>-78.98214644821354</v>
+        <v>-78.9865367125031</v>
       </c>
       <c r="R3" t="n">
-        <v>437.6841392241788</v>
+        <v>437.6756781489061</v>
       </c>
       <c r="S3" t="n">
-        <v>1830542.222542533</v>
+        <v>1830079.03597033</v>
       </c>
       <c r="T3" t="n">
-        <v>64.87683310172842</v>
+        <v>64.86083492827166</v>
       </c>
       <c r="U3" t="n">
-        <v>450501.1948468437</v>
+        <v>450494.8706806881</v>
       </c>
       <c r="V3" t="n">
-        <v>478716.8480318905</v>
+        <v>478710.3421280443</v>
       </c>
       <c r="W3" t="n">
-        <v>1838.692310772849</v>
+        <v>1838.69376035333</v>
       </c>
       <c r="X3" t="n">
-        <v>-326049.6133068401</v>
+        <v>-326041.1963427617</v>
       </c>
       <c r="Y3" t="n">
-        <v>925.7370752676075</v>
+        <v>925.7247026198686</v>
       </c>
       <c r="Z3" t="n">
-        <v>1028.289799532081</v>
+        <v>1028.269635987833</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.110779536657131</v>
+        <v>1.110772601268774</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9305791393308286</v>
+        <v>0.9305911351377678</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.7936088914001</v>
+        <v>170.7935703249261</v>
       </c>
       <c r="AD3" t="n">
-        <v>1892486.859789735</v>
+        <v>1892019.331296911</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.284052540851487e-07</v>
+        <v>5.285358259603701e-07</v>
       </c>
       <c r="AF3" t="n">
-        <v>1703746.600774746</v>
+        <v>1703336.334669907</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.869417432998953e-07</v>
+        <v>5.870831142657401e-07</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.002987002019409811</v>
+        <v>0.002986908777085371</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.923527098137095e-05</v>
+        <v>1.923470091117892e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02618185202890959</v>
+        <v>0.02618085115952395</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.364217385293886</v>
+        <v>2.363981457773287</v>
       </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="n">
-        <v>1830542.222542533</v>
+        <v>1830079.03597033</v>
       </c>
       <c r="AO3" t="n">
-        <v>64.87683310172842</v>
+        <v>64.86083492827166</v>
       </c>
       <c r="AP3" t="n">
-        <v>64.87683310172842</v>
+        <v>64.86083492827166</v>
       </c>
       <c r="AQ3" t="n">
-        <v>450501.1948468437</v>
+        <v>450494.8706806881</v>
       </c>
       <c r="AR3" t="n">
-        <v>478716.8480318905</v>
+        <v>478710.3421280443</v>
       </c>
       <c r="AS3" t="n">
-        <v>1838.692310772849</v>
+        <v>1838.69376035333</v>
       </c>
       <c r="AT3" t="n">
-        <v>925.7370752676075</v>
+        <v>925.7247026198686</v>
       </c>
       <c r="AU3" t="n">
-        <v>1028.289799532081</v>
+        <v>1028.269635987833</v>
       </c>
       <c r="AV3" t="n">
-        <v>170.7936088914001</v>
+        <v>170.7935703249261</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.9305791393308286</v>
+        <v>0.9305911351377678</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.923527098137095e-05</v>
+        <v>1.923470091117892e-05</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.02618185202890959</v>
+        <v>0.02618085115952395</v>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
@@ -4318,102 +4318,102 @@
       </c>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="n">
-        <v>438.5705446342649</v>
+        <v>438.5654353632854</v>
       </c>
       <c r="BD3" t="n">
-        <v>1876252.351671242</v>
+        <v>1875953.969958812</v>
       </c>
       <c r="BE3" t="n">
-        <v>66.44364365269342</v>
+        <v>66.43329441650924</v>
       </c>
       <c r="BF3" t="n">
-        <v>451174.7902458925</v>
+        <v>451171.0272709249</v>
       </c>
       <c r="BG3" t="n">
-        <v>479413.0422219366</v>
+        <v>479409.1868629715</v>
       </c>
       <c r="BH3" t="n">
-        <v>1838.692310773106</v>
+        <v>1838.693760353595</v>
       </c>
       <c r="BI3" t="n">
-        <v>-326983.2459286597</v>
+        <v>-326978.3426462589</v>
       </c>
       <c r="BJ3" t="n">
-        <v>927.0069910937846</v>
+        <v>926.9994165693408</v>
       </c>
       <c r="BK3" t="n">
-        <v>1030.309956803415</v>
+        <v>1030.29729471423</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.111437094544177</v>
+        <v>1.111432516891085</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.9294421468567994</v>
+        <v>0.9294499340336354</v>
       </c>
       <c r="BN3" t="n">
-        <v>170.8141329377099</v>
+        <v>170.814180062987</v>
       </c>
       <c r="BO3" t="n">
-        <v>1938657.28722813</v>
+        <v>1938356.392251882</v>
       </c>
       <c r="BP3" t="n">
-        <v>5.158209274986341e-07</v>
+        <v>5.159009994226355e-07</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1744279.812815869</v>
+        <v>1744016.269808158</v>
       </c>
       <c r="BR3" t="n">
-        <v>5.733025129641642e-07</v>
+        <v>5.733891462549257e-07</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.002995403326322593</v>
+        <v>0.002995340018020388</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.929346090078699e-05</v>
+        <v>1.929310437255237e-05</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.02628514220530958</v>
+        <v>0.02628452568142534</v>
       </c>
       <c r="BV3" t="n">
-        <v>2.388503707776606</v>
+        <v>2.388349441888098</v>
       </c>
       <c r="BW3" t="inlineStr"/>
       <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="n">
-        <v>1876252.351671242</v>
+        <v>1875953.969958812</v>
       </c>
       <c r="BZ3" t="n">
-        <v>66.44364365269342</v>
+        <v>66.43329441650924</v>
       </c>
       <c r="CA3" t="n">
-        <v>66.44364365269342</v>
+        <v>66.43329441650924</v>
       </c>
       <c r="CB3" t="n">
-        <v>451174.7902458925</v>
+        <v>451171.0272709249</v>
       </c>
       <c r="CC3" t="n">
-        <v>479413.0422219366</v>
+        <v>479409.1868629715</v>
       </c>
       <c r="CD3" t="n">
-        <v>1838.692310773106</v>
+        <v>1838.693760353595</v>
       </c>
       <c r="CE3" t="n">
-        <v>927.0069910937846</v>
+        <v>926.9994165693408</v>
       </c>
       <c r="CF3" t="n">
-        <v>1030.309956803415</v>
+        <v>1030.29729471423</v>
       </c>
       <c r="CG3" t="n">
-        <v>170.8141329377099</v>
+        <v>170.814180062987</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.9294421468567994</v>
+        <v>0.9294499340336354</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.929346090078699e-05</v>
+        <v>1.929310437255237e-05</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.02628514220530958</v>
+        <v>0.02628452568142534</v>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
@@ -4425,102 +4425,102 @@
       </c>
       <c r="CM3" t="inlineStr"/>
       <c r="CN3" t="n">
-        <v>456.8670989261845</v>
+        <v>456.857920706614</v>
       </c>
       <c r="CO3" t="n">
-        <v>3057715.885893652</v>
+        <v>3056949.415450607</v>
       </c>
       <c r="CP3" t="n">
-        <v>106.8422115224492</v>
+        <v>106.8158511994264</v>
       </c>
       <c r="CQ3" t="n">
-        <v>464683.0892375571</v>
+        <v>464676.6897058118</v>
       </c>
       <c r="CR3" t="n">
-        <v>493302.0764554618</v>
+        <v>493295.5639751677</v>
       </c>
       <c r="CS3" t="n">
-        <v>1838.692310772972</v>
+        <v>1838.69376035346</v>
       </c>
       <c r="CT3" t="n">
-        <v>-346735.9453852685</v>
+        <v>-346726.2441961393</v>
       </c>
       <c r="CU3" t="n">
-        <v>953.1960415863164</v>
+        <v>953.182629729611</v>
       </c>
       <c r="CV3" t="n">
-        <v>1075.791138820839</v>
+        <v>1075.764964952517</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.12861477795323</v>
+        <v>1.128603198799037</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.90424973514617</v>
+        <v>0.9042643326017152</v>
       </c>
       <c r="CY3" t="n">
-        <v>171.2067265336125</v>
+        <v>171.2066241177834</v>
       </c>
       <c r="CZ3" t="n">
-        <v>3131731.46817248</v>
+        <v>3130955.055276376</v>
       </c>
       <c r="DA3" t="n">
-        <v>3.193121792730044e-07</v>
+        <v>3.193913621707125e-07</v>
       </c>
       <c r="DB3" t="n">
-        <v>2774845.349670105</v>
+        <v>2774185.877381944</v>
       </c>
       <c r="DC3" t="n">
-        <v>3.603804443079639e-07</v>
+        <v>3.604661130146479e-07</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.003214353612700892</v>
+        <v>0.003214204023562061</v>
       </c>
       <c r="DE3" t="n">
-        <v>2.070815687562728e-05</v>
+        <v>2.070728488413675e-05</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.02860617330842331</v>
+        <v>0.02860487426304132</v>
       </c>
       <c r="DG3" t="n">
-        <v>3.622024986330358</v>
+        <v>3.620288047523946</v>
       </c>
       <c r="DH3" t="inlineStr"/>
       <c r="DI3" t="inlineStr"/>
       <c r="DJ3" t="n">
-        <v>3057715.885893652</v>
+        <v>3056949.415450607</v>
       </c>
       <c r="DK3" t="n">
-        <v>106.8422115224492</v>
+        <v>106.8158511994264</v>
       </c>
       <c r="DL3" t="n">
-        <v>106.8422115224492</v>
+        <v>106.8158511994264</v>
       </c>
       <c r="DM3" t="n">
-        <v>464683.0892375571</v>
+        <v>464676.6897058118</v>
       </c>
       <c r="DN3" t="n">
-        <v>493302.0764554618</v>
+        <v>493295.5639751677</v>
       </c>
       <c r="DO3" t="n">
-        <v>1838.692310772972</v>
+        <v>1838.69376035346</v>
       </c>
       <c r="DP3" t="n">
-        <v>953.1960415863164</v>
+        <v>953.182629729611</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1075.791138820839</v>
+        <v>1075.764964952517</v>
       </c>
       <c r="DR3" t="n">
-        <v>171.2067265336125</v>
+        <v>171.2066241177834</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.90424973514617</v>
+        <v>0.9042643326017152</v>
       </c>
       <c r="DT3" t="n">
-        <v>2.070815687562728e-05</v>
+        <v>2.070728488413675e-05</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.02860617330842331</v>
+        <v>0.02860487426304132</v>
       </c>
       <c r="DV3" t="inlineStr">
         <is>
@@ -4532,64 +4532,64 @@
       </c>
       <c r="DX3" t="inlineStr"/>
       <c r="DY3" t="n">
-        <v>0.02062880338743957</v>
+        <v>0.02065741871512142</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.01171733603980618</v>
+        <v>0.01171732865133834</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.01025163958462825</v>
+        <v>0.01038251454669095</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.03161933431089667</v>
+        <v>0.03156605123774085</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.07421711332277067</v>
+        <v>0.07432331315089155</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.07421711332277067</v>
+        <v>-0.07432331315089155</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.2184784368170204</v>
+        <v>0.2188939858163843</v>
       </c>
       <c r="EG3" t="n">
-        <v>1.000000000156865</v>
+        <v>1.000000000512876</v>
       </c>
       <c r="EH3" t="n">
-        <v>4859720.791660261</v>
+        <v>4842789.197385561</v>
       </c>
       <c r="EI3" t="n">
-        <v>10.6600002682561</v>
+        <v>10.65999871024212</v>
       </c>
       <c r="EJ3" t="n">
-        <v>476054.8198867084</v>
+        <v>476016.4479136745</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>985.0676128327614</v>
+        <v>985.5562162786955</v>
       </c>
       <c r="EM3" t="n">
-        <v>-51.59049224650101</v>
+        <v>-51.59248076169214</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.01702118925470615</v>
+        <v>0.01700907330548201</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.0046630898877647</v>
+        <v>0.004721882393046286</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.01364515782583999</v>
+        <v>0.01362092236644145</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.006080795109634621</v>
+        <v>0.006078940637371107</v>
       </c>
     </row>
   </sheetData>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6830267679824169</v>
+        <v>0.6824610950836759</v>
       </c>
     </row>
   </sheetData>
@@ -4882,28 +4882,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03501846915341564</v>
+        <v>0.03503323670861236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05836411525569274</v>
+        <v>0.05838872784768715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03845183525768956</v>
+        <v>0.03847862738741641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05493074915141882</v>
+        <v>0.0549433371688831</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007788195703852473</v>
+        <v>0.007789509223867275</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01038426093846996</v>
+        <v>0.0103860122984897</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001459362349238768</v>
+        <v>0.001459608478345884</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00233197822466819</v>
+        <v>0.002332395236569071</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -4911,13 +4911,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>20.45482481504649</v>
+        <v>20.45665123722149</v>
       </c>
       <c r="L2" t="n">
-        <v>79.20000000000002</v>
+        <v>79.19999999999996</v>
       </c>
       <c r="M2" t="n">
-        <v>-29.37258759247675</v>
+        <v>-29.37167438138923</v>
       </c>
       <c r="N2" t="n">
         <v>0.01200896</v>
@@ -4926,7 +4926,7 @@
         <v>45</v>
       </c>
       <c r="P2" t="n">
-        <v>7.296811746193841e-05</v>
+        <v>7.298042391729463e-05</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4941,67 +4941,67 @@
         <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>0.009049349426384919</v>
+        <v>0.009050956839588991</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04669129220455419</v>
+        <v>0.04671098227814975</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04669129220455419</v>
+        <v>0.04671098227814976</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04669129220455419</v>
+        <v>0.04671098227814976</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03845183525768956</v>
+        <v>0.03847862738741641</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.05493074915141882</v>
+        <v>0.0549433371688831</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05836411525569274</v>
+        <v>0.05838872784768715</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05493074915141882</v>
+        <v>0.0549433371688831</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.05493074915141882</v>
+        <v>0.0549433371688831</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6</v>
+        <v>0.6000000000000012</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7000056589742756</v>
+        <v>0.7003329133274525</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7000056589742756</v>
+        <v>0.7003329133274525</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.006848913157765688</v>
+        <v>0.006854690853459023</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.004834419647158179</v>
+        <v>0.004832289540469407</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0009058799087435539</v>
+        <v>0.0009054807665520083</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01991227999800318</v>
+        <v>0.01991010046027074</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02334564610227709</v>
+        <v>0.02335549113907479</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.01647891389372926</v>
+        <v>0.01646470978146669</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01647891389372926</v>
+        <v>0.01646470978146669</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.3626267605338406</v>
+        <v>-20.84012299640998</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.917544263957709</v>
+        <v>1.917011061422102</v>
       </c>
       <c r="AP2" t="n">
         <v>0.75</v>
@@ -5010,16 +5010,16 @@
         <v>1.333333333333333</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.2245685310188081</v>
+        <v>0.2245708140465268</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.05</v>
+        <v>0.05000000000000031</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.156457842417183</v>
+        <v>1.15626283263176</v>
       </c>
     </row>
     <row r="3">
@@ -5027,28 +5027,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03845183525769544</v>
+        <v>0.03847862738742726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05493074915141296</v>
+        <v>0.05494333716887227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03811191556079215</v>
+        <v>0.03812972904352323</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05527066884831626</v>
+        <v>0.05529223551277628</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006327171889564677</v>
+        <v>0.006306497293258791</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008436229186086237</v>
+        <v>0.008408663057678387</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001209216597332706</v>
+        <v>0.00120479104560176</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001891013289459357</v>
+        <v>0.001884889938085138</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -5056,13 +5056,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-20.34093714730382</v>
+        <v>-20.3418464234055</v>
       </c>
       <c r="L3" t="n">
-        <v>-78.98214644821354</v>
+        <v>-78.9865367125031</v>
       </c>
       <c r="M3" t="n">
-        <v>29.32060465045486</v>
+        <v>29.3223451445488</v>
       </c>
       <c r="N3" t="n">
         <v>0.01200896</v>
@@ -5071,7 +5071,7 @@
         <v>45</v>
       </c>
       <c r="P3" t="n">
-        <v>6.046082986663532e-05</v>
+        <v>6.02395522800882e-05</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0005</v>
@@ -5082,85 +5082,85 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>0.007355491070390359</v>
+        <v>0.007331331261925708</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0466912922045542</v>
+        <v>0.04671098227814977</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0466912922045542</v>
+        <v>0.04671098227814975</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0466912922045542</v>
+        <v>0.04671098227814975</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03811191556079215</v>
+        <v>0.03812972904352323</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.05527066884831626</v>
+        <v>0.05529223551277628</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05543074915141296</v>
+        <v>0.05544333716887227</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.05577066884831626</v>
+        <v>0.05579223551277628</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.05577066884831626</v>
+        <v>0.05579223551277628</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.7000056589744573</v>
+        <v>0.7003329133277881</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6895504678147778</v>
+        <v>0.6896036792491896</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6895504678147778</v>
+        <v>0.6896036792491896</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.004834419647154736</v>
+        <v>0.004832289540463043</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.005033864158093129</v>
+        <v>0.005037088512362603</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0009620462656820981</v>
+        <v>0.0009622836343852729</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.01681883359062082</v>
+        <v>0.01681360812534903</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.01647891389371752</v>
+        <v>0.01646470978144501</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.01715875328752411</v>
+        <v>0.01716250646925305</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.01715875328752411</v>
+        <v>0.01716250646925305</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.04618019660586769</v>
+        <v>2.724652705685985</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.993643512952434</v>
+        <v>1.999557838150698</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.75</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.333333333333333</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2241538544943967</v>
+        <v>0.2241604789198857</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.05</v>
+        <v>0.05000000000000016</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.02972857762733497</v>
+        <v>0.02973781690832768</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.423498548356916</v>
+        <v>1.42816520505409</v>
       </c>
     </row>
   </sheetData>
@@ -5174,7 +5174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5280,13 +5280,13 @@
         <v>52</v>
       </c>
       <c r="H3" t="n">
-        <v>-7.752241401862241</v>
+        <v>-7.749640129344686</v>
       </c>
       <c r="I3" t="n">
-        <v>1.567658567410162</v>
+        <v>1.568461637638505</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6718379361474457</v>
+        <v>0.6726515458475864</v>
       </c>
     </row>
     <row r="4">
@@ -5306,13 +5306,13 @@
         <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>-9.496681167675767</v>
+        <v>-9.495003304406715</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7263584805820325</v>
+        <v>0.7354003325212957</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5604141555651215</v>
+        <v>0.565778349069799</v>
       </c>
     </row>
     <row r="5">
@@ -5332,13 +5332,13 @@
         <v>104</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.300263675083597</v>
+        <v>-9.295835062393445</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1496678225891009</v>
+        <v>0.1492547316442416</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2445503358458909</v>
+        <v>0.2448035858746643</v>
       </c>
     </row>
     <row r="6">
@@ -5358,13 +5358,13 @@
         <v>131</v>
       </c>
       <c r="H6" t="n">
-        <v>-9.890889008353167</v>
+        <v>-9.897043248574644</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1483108946310957</v>
+        <v>0.148094456316301</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3465300081295161</v>
+        <v>0.3523139423666356</v>
       </c>
     </row>
     <row r="7">
@@ -5384,13 +5384,13 @@
         <v>157</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.195105233675728</v>
+        <v>-9.199159032339459</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03076324969639546</v>
+        <v>0.03085558064969594</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3406266508564865</v>
+        <v>0.3475172657477159</v>
       </c>
     </row>
     <row r="8">
@@ -5410,13 +5410,13 @@
         <v>183</v>
       </c>
       <c r="H8" t="n">
-        <v>-9.081531617520348</v>
+        <v>-9.082573241121121</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006286733515888293</v>
+        <v>0.00616922276423218</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1413709544783197</v>
+        <v>0.1451375198753654</v>
       </c>
     </row>
     <row r="9">
@@ -5436,13 +5436,13 @@
         <v>209</v>
       </c>
       <c r="H9" t="n">
-        <v>-9.06590253858932</v>
+        <v>-9.07072786409331</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00102944946504707</v>
+        <v>0.001422660315874749</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05793206929450177</v>
+        <v>0.09085361487204142</v>
       </c>
     </row>
     <row r="10">
@@ -5462,13 +5462,13 @@
         <v>236</v>
       </c>
       <c r="H10" t="n">
-        <v>-9.070622359159794</v>
+        <v>-9.087243574990605</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001475100257618176</v>
+        <v>0.001961520309303771</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04788031134677607</v>
+        <v>0.05897782344684366</v>
       </c>
     </row>
     <row r="11">
@@ -5482,19 +5482,19 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.077875183592001</v>
+        <v>-9.083604680194318</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001836303600281859</v>
+        <v>0.001293464179435894</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04556309085715757</v>
+        <v>0.04062845263216997</v>
       </c>
     </row>
     <row r="12">
@@ -5508,19 +5508,19 @@
         <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H12" t="n">
-        <v>-9.082116416384093</v>
+        <v>-9.086182992449288</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001841614343665628</v>
+        <v>0.001628406740226642</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01983936589461483</v>
+        <v>0.03227277709509668</v>
       </c>
     </row>
     <row r="13">
@@ -5534,19 +5534,19 @@
         <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H13" t="n">
-        <v>-9.085263995600993</v>
+        <v>-9.088203895868242</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001594988456161688</v>
+        <v>0.00165447569541146</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04356405300670656</v>
+        <v>0.02927771437490592</v>
       </c>
     </row>
     <row r="14">
@@ -5560,19 +5560,19 @@
         <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H14" t="n">
-        <v>-9.086501873525645</v>
+        <v>-9.090016175515537</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001632993030477531</v>
+        <v>0.001766166296580156</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02717900287357426</v>
+        <v>0.03147271646971146</v>
       </c>
     </row>
     <row r="15">
@@ -5586,19 +5586,19 @@
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H15" t="n">
-        <v>-9.088408665613809</v>
+        <v>-9.091472184226271</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001928486725397289</v>
+        <v>0.001757513884433214</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03780797442089298</v>
+        <v>0.03200716262290926</v>
       </c>
     </row>
     <row r="16">
@@ -5612,19 +5612,19 @@
         <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H16" t="n">
-        <v>-9.09017787268912</v>
+        <v>-9.092829447517161</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002023580817964962</v>
+        <v>0.001419655868204173</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03288958240280306</v>
+        <v>0.02578221813939621</v>
       </c>
     </row>
     <row r="17">
@@ -5638,19 +5638,19 @@
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G17" t="n">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.091399764010456</v>
+        <v>-9.092303669457973</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00203286958733823</v>
+        <v>0.001213839604560561</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02021499614941742</v>
+        <v>0.01933498208739887</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H18" t="n">
-        <v>-9.092032036160104</v>
+        <v>-9.093061051403865</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002010472187275882</v>
+        <v>0.001350344686679182</v>
       </c>
       <c r="J18" t="n">
-        <v>0.009861536603102279</v>
+        <v>0.03325546966000404</v>
       </c>
     </row>
     <row r="19">
@@ -5690,19 +5690,19 @@
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G19" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H19" t="n">
-        <v>-9.09330659198983</v>
+        <v>-9.093770639230218</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003420453499451466</v>
+        <v>0.001390996808193469</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04122928416919468</v>
+        <v>0.03258193279928274</v>
       </c>
     </row>
     <row r="20">
@@ -5716,19 +5716,19 @@
         <v>19</v>
       </c>
       <c r="F20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H20" t="n">
-        <v>-9.093649247953991</v>
+        <v>-9.09447940839093</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003383537952972054</v>
+        <v>0.001450883206769472</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01388508155263614</v>
+        <v>0.02481266893248232</v>
       </c>
     </row>
     <row r="21">
@@ -5742,19 +5742,19 @@
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G21" t="n">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="H21" t="n">
-        <v>-9.093748907215414</v>
+        <v>-9.095374490422209</v>
       </c>
       <c r="I21" t="n">
-        <v>0.003338253718139878</v>
+        <v>0.001511317796802763</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003270569722067655</v>
+        <v>0.02663946566852898</v>
       </c>
     </row>
     <row r="22">
@@ -5768,19 +5768,19 @@
         <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G22" t="n">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H22" t="n">
-        <v>-9.094453238107786</v>
+        <v>-9.095857790202118</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0021953677132086</v>
+        <v>0.001490729079599767</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05085854259632471</v>
+        <v>0.02421009516010924</v>
       </c>
     </row>
     <row r="23">
@@ -5794,19 +5794,19 @@
         <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H23" t="n">
-        <v>-9.094976637302402</v>
+        <v>-9.095858207422875</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002228415660775126</v>
+        <v>0.001490628751129782</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02535134124030124</v>
+        <v>1.93628414890075e-05</v>
       </c>
     </row>
     <row r="24">
@@ -5820,19 +5820,19 @@
         <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H24" t="n">
-        <v>-9.095369378572407</v>
+        <v>-9.095524215913102</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00227008453603086</v>
+        <v>7.756988735724279e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0173880978420327</v>
+        <v>0.01161687083271834</v>
       </c>
     </row>
     <row r="25">
@@ -5846,19 +5846,19 @@
         <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H25" t="n">
-        <v>-9.095615313436644</v>
+        <v>-9.09550399888218</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00225309963148512</v>
+        <v>2.157965810001272e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.006653505788788408</v>
+        <v>0.01700861444527676</v>
       </c>
     </row>
     <row r="26">
@@ -5872,19 +5872,19 @@
         <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G26" t="n">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H26" t="n">
-        <v>-9.097522046629724</v>
+        <v>-9.095550520915287</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001532497540545373</v>
+        <v>2.335840850629933e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02508431395830646</v>
+        <v>0.001522553640899576</v>
       </c>
     </row>
     <row r="27">
@@ -5898,19 +5898,19 @@
         <v>26</v>
       </c>
       <c r="F27" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H27" t="n">
-        <v>-9.096637655546465</v>
+        <v>-9.095576365037857</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0007940574642495569</v>
+        <v>1.785273278502586e-05</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01273055300187943</v>
+        <v>0.002285971718059811</v>
       </c>
     </row>
     <row r="28">
@@ -5924,19 +5924,19 @@
         <v>27</v>
       </c>
       <c r="F28" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G28" t="n">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H28" t="n">
-        <v>-9.096101241833038</v>
+        <v>-9.095572467356181</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0001381687141435066</v>
+        <v>2.094175562517009e-06</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01565537983999782</v>
+        <v>0.001758944867783917</v>
       </c>
     </row>
     <row r="29">
@@ -5950,19 +5950,19 @@
         <v>28</v>
       </c>
       <c r="F29" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G29" t="n">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H29" t="n">
-        <v>-9.096393514862584</v>
+        <v>-9.095580410449903</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0001158676477887318</v>
+        <v>1.901989047869979e-06</v>
       </c>
       <c r="J29" t="n">
-        <v>0.003093657506161159</v>
+        <v>0.0002053622724879969</v>
       </c>
     </row>
     <row r="30">
@@ -5976,19 +5976,19 @@
         <v>29</v>
       </c>
       <c r="F30" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G30" t="n">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H30" t="n">
-        <v>-9.096014893381966</v>
+        <v>-9.095581480503283</v>
       </c>
       <c r="I30" t="n">
-        <v>1.787399433339498e-05</v>
+        <v>1.89538694703173e-06</v>
       </c>
       <c r="J30" t="n">
-        <v>0.007623377666189066</v>
+        <v>2.701597867246471e-05</v>
       </c>
     </row>
     <row r="31">
@@ -6002,19 +6002,19 @@
         <v>30</v>
       </c>
       <c r="F31" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H31" t="n">
-        <v>-9.096003924192033</v>
+        <v>-9.095582103044929</v>
       </c>
       <c r="I31" t="n">
-        <v>1.615283925761324e-05</v>
+        <v>1.607869941587486e-06</v>
       </c>
       <c r="J31" t="n">
-        <v>0.002533466140196181</v>
+        <v>1.710105845977117e-05</v>
       </c>
     </row>
     <row r="32">
@@ -6028,19 +6028,19 @@
         <v>31</v>
       </c>
       <c r="F32" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G32" t="n">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="H32" t="n">
-        <v>-9.095978452662774</v>
+        <v>-9.096018258414038</v>
       </c>
       <c r="I32" t="n">
-        <v>8.282510081905614e-06</v>
+        <v>0.0001006573194514138</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0006994250033431103</v>
+        <v>0.0004242017470400496</v>
       </c>
     </row>
     <row r="33">
@@ -6054,19 +6054,19 @@
         <v>32</v>
       </c>
       <c r="F33" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G33" t="n">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="H33" t="n">
-        <v>-9.095975160391889</v>
+        <v>-9.096334653010494</v>
       </c>
       <c r="I33" t="n">
-        <v>8.43503152620471e-06</v>
+        <v>0.0001572383297967495</v>
       </c>
       <c r="J33" t="n">
-        <v>0.001041808901190885</v>
+        <v>0.001332588941100367</v>
       </c>
     </row>
     <row r="34">
@@ -6080,19 +6080,19 @@
         <v>33</v>
       </c>
       <c r="F34" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G34" t="n">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="H34" t="n">
-        <v>-9.095977735418831</v>
+        <v>-9.095729849816109</v>
       </c>
       <c r="I34" t="n">
-        <v>8.148653669774849e-06</v>
+        <v>4.599195172547878e-06</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0001854080707795143</v>
+        <v>0.002150377891694204</v>
       </c>
     </row>
     <row r="35">
@@ -6106,19 +6106,19 @@
         <v>34</v>
       </c>
       <c r="F35" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G35" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="H35" t="n">
-        <v>-9.095978171011788</v>
+        <v>-9.095735647848205</v>
       </c>
       <c r="I35" t="n">
-        <v>8.036339746926536e-06</v>
+        <v>4.071346613106164e-06</v>
       </c>
       <c r="J35" t="n">
-        <v>5.271416797787628e-05</v>
+        <v>0.0003172591189785036</v>
       </c>
     </row>
     <row r="36">
@@ -6132,19 +6132,19 @@
         <v>35</v>
       </c>
       <c r="F36" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G36" t="n">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H36" t="n">
-        <v>-9.095963063275995</v>
+        <v>-9.09573511880112</v>
       </c>
       <c r="I36" t="n">
-        <v>6.275958443352492e-07</v>
+        <v>1.398417351847203e-06</v>
       </c>
       <c r="J36" t="n">
-        <v>0.002506039004703238</v>
+        <v>0.0008230877166680692</v>
       </c>
     </row>
     <row r="37">
@@ -6158,19 +6158,19 @@
         <v>36</v>
       </c>
       <c r="F37" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G37" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="H37" t="n">
-        <v>-9.095995645159885</v>
+        <v>-9.095750366100635</v>
       </c>
       <c r="I37" t="n">
-        <v>1.031688616426329e-06</v>
+        <v>6.935358570530336e-08</v>
       </c>
       <c r="J37" t="n">
-        <v>0.003794430927013315</v>
+        <v>0.001050819398341947</v>
       </c>
     </row>
     <row r="38">
@@ -6184,19 +6184,19 @@
         <v>37</v>
       </c>
       <c r="F38" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H38" t="n">
-        <v>-9.096000767550072</v>
+        <v>-9.095767977426258</v>
       </c>
       <c r="I38" t="n">
-        <v>1.022634071687345e-06</v>
+        <v>5.577566313252902e-07</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0005004136524344271</v>
+        <v>0.0006541509399023244</v>
       </c>
     </row>
     <row r="39">
@@ -6210,19 +6210,19 @@
         <v>38</v>
       </c>
       <c r="F39" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G39" t="n">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H39" t="n">
-        <v>-9.096001137022503</v>
+        <v>-9.095778111368304</v>
       </c>
       <c r="I39" t="n">
-        <v>1.064625459581969e-06</v>
+        <v>5.001797954429232e-07</v>
       </c>
       <c r="J39" t="n">
-        <v>3.090884234407413e-05</v>
+        <v>0.0001868480390844144</v>
       </c>
     </row>
     <row r="40">
@@ -6233,151 +6233,21 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G40" t="n">
-        <v>1061</v>
+        <v>1038</v>
       </c>
       <c r="H40" t="n">
-        <v>-9.096013189538182</v>
+        <v>-9.095778111368304</v>
       </c>
       <c r="I40" t="n">
-        <v>1.064179953325084e-06</v>
+        <v>5.001797954429232e-07</v>
       </c>
       <c r="J40" t="n">
-        <v>0.001150335597515673</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
-        <v>40</v>
-      </c>
-      <c r="F41" t="n">
-        <v>87</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1087</v>
-      </c>
-      <c r="H41" t="n">
-        <v>-9.096021684611049</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6.227453297202867e-07</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.002369828290658145</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>41</v>
-      </c>
-      <c r="F42" t="n">
-        <v>89</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1114</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-9.09602333252176</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7.078089467454918e-07</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.0008189999136877913</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
-        <v>42</v>
-      </c>
-      <c r="F43" t="n">
-        <v>91</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1141</v>
-      </c>
-      <c r="H43" t="n">
-        <v>-9.096024374444724</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6.938351490709538e-07</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.0006630550048367172</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
-        <v>43</v>
-      </c>
-      <c r="F44" t="n">
-        <v>92</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1167</v>
-      </c>
-      <c r="H44" t="n">
-        <v>-9.096022570562324</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.140032434178041e-07</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.0001301758959302501</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
-        <v>43</v>
-      </c>
-      <c r="F45" t="n">
-        <v>94</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1169</v>
-      </c>
-      <c r="H45" t="n">
-        <v>-9.096022570562324</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.140032434178041e-07</v>
-      </c>
-      <c r="J45" t="n">
         <v>0</v>
       </c>
     </row>

--- a/tests/regression_data_windows/design_optimization_windows.xlsx
+++ b/tests/regression_data_windows/design_optimization_windows.xlsx
@@ -725,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ED5"/>
+  <dimension ref="A1:EE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1399,6 +1399,11 @@
           <t>blockage</t>
         </is>
       </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>h_is</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1807,6 +1812,11 @@
           <t>b''</t>
         </is>
       </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2198,6 +2208,9 @@
       </c>
       <c r="ED3" t="n">
         <v>0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>490189.7099025669</v>
       </c>
     </row>
     <row r="4">
@@ -2575,6 +2588,7 @@
       <c r="EB4" t="inlineStr"/>
       <c r="EC4" t="inlineStr"/>
       <c r="ED4" t="inlineStr"/>
+      <c r="EE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2966,6 +2980,9 @@
       </c>
       <c r="ED5" t="n">
         <v>0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>474663.510268038</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +2996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ER3"/>
+  <dimension ref="A1:EN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3690,37 +3707,17 @@
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
+          <t>h_is_throat</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
           <t>dh_s</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>incidence</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_profile</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_incidence</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_secondary</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_clearance</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_trailing</t>
         </is>
       </c>
     </row>
@@ -4137,25 +4134,13 @@
         <v>0</v>
       </c>
       <c r="EL2" t="n">
+        <v>490646.156185923</v>
+      </c>
+      <c r="EM2" t="n">
         <v>446.8077670247294</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>-20.45665123722149</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.005059829407177755</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.01072733292376794</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.002995745518082173</v>
       </c>
     </row>
     <row r="3">
@@ -4571,25 +4556,13 @@
         <v>0</v>
       </c>
       <c r="EL3" t="n">
+        <v>478710.3421281012</v>
+      </c>
+      <c r="EM3" t="n">
         <v>985.5562162786955</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>-51.59248076169214</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>0.01700907330548201</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>0.004721882393046286</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>0.01362092236644145</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0.006078940637371107</v>
       </c>
     </row>
   </sheetData>
@@ -4698,182 +4671,182 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>stagger_angle</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>number_of_stages</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>number_of_cascades</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_in</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>A_out</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>height_out</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>solidity</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
           <t>gauging_angle</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>stagger_angle</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>leading_edge_diameter</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>leading_edge_wedge_angle</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>trailing_edge_thickness</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>tip_clearance</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>throat_location_fraction</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>number_of_stages</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>number_of_cascades</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>axial_chord</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>radius_mean_in</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>radius_mean_out</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>radius_mean_throat</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>radius_hub_throat</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>radius_tip_throat</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>radius_shroud_in</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>radius_shroud_out</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>radius_shroud_throat</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>hub_tip_ratio_in</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>hub_tip_ratio_out</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>hub_tip_ratio_throat</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>A_in</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>A_out</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>A_throat</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>height_in</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>height_throat</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>height_out</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>flaring_angle</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>aspect_ratio</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>pitch_chord_ratio</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>solidity</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>maximum_thickness_chord_ratio</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>trailing_edge_thickness_opening_ratio</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>tip_clearance_height_ratio</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>leading_edge_diameter_chord_ratio</t>
         </is>
       </c>
     </row>
@@ -4914,112 +4887,112 @@
         <v>20.45665123722149</v>
       </c>
       <c r="L2" t="n">
-        <v>79.19999999999996</v>
+        <v>-29.37167438138923</v>
       </c>
       <c r="M2" t="n">
-        <v>-29.37167438138923</v>
+        <v>0.01200896</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01200896</v>
+        <v>45</v>
       </c>
       <c r="O2" t="n">
-        <v>45</v>
+        <v>7.298042391729463e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>7.298042391729463e-05</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0.009050956839588991</v>
       </c>
       <c r="U2" t="n">
-        <v>0.009050956839588991</v>
+        <v>0.04671098227814975</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04671098227814975</v>
+        <v>0.04671098227814976</v>
       </c>
       <c r="W2" t="n">
         <v>0.04671098227814976</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04671098227814976</v>
+        <v>0.03847862738741641</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03847862738741641</v>
+        <v>0.0549433371688831</v>
       </c>
       <c r="Z2" t="n">
+        <v>0.05838872784768715</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.0549433371688831</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.05838872784768715</v>
       </c>
       <c r="AB2" t="n">
         <v>0.0549433371688831</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0549433371688831</v>
+        <v>0.6000000000000012</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6000000000000012</v>
+        <v>0.7003329133274525</v>
       </c>
       <c r="AE2" t="n">
         <v>0.7003329133274525</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7003329133274525</v>
+        <v>0.006854690853459023</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.006854690853459023</v>
+        <v>0.004832289540469407</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.004832289540469407</v>
+        <v>0.0009054807665520083</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0009054807665520083</v>
+        <v>0.01991010046027074</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01991010046027074</v>
+        <v>0.02335549113907479</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02335549113907479</v>
+        <v>0.01646470978146669</v>
       </c>
       <c r="AL2" t="n">
         <v>0.01646470978146669</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01646470978146669</v>
+        <v>-20.84012299640998</v>
       </c>
       <c r="AN2" t="n">
-        <v>-20.84012299640998</v>
+        <v>1.917011061422102</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.917011061422102</v>
+        <v>0.75</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.75</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.333333333333333</v>
+        <v>0.2245708140465268</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.2245708140465268</v>
+        <v>0.05000000000000031</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.05000000000000031</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>1.15626283263176</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.15626283263176</v>
+        <v>79.19999999999996</v>
       </c>
     </row>
     <row r="3">
@@ -5059,108 +5032,108 @@
         <v>-20.3418464234055</v>
       </c>
       <c r="L3" t="n">
-        <v>-78.9865367125031</v>
+        <v>29.3223451445488</v>
       </c>
       <c r="M3" t="n">
-        <v>29.3223451445488</v>
+        <v>0.01200896</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01200896</v>
+        <v>45</v>
       </c>
       <c r="O3" t="n">
-        <v>45</v>
+        <v>6.02395522800882e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>6.02395522800882e-05</v>
+        <v>0.0005</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="R3" t="n">
         <v>1</v>
       </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>0.007331331261925708</v>
+      </c>
       <c r="U3" t="n">
-        <v>0.007331331261925708</v>
+        <v>0.04671098227814977</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04671098227814977</v>
+        <v>0.04671098227814975</v>
       </c>
       <c r="W3" t="n">
         <v>0.04671098227814975</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04671098227814975</v>
+        <v>0.03812972904352323</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03812972904352323</v>
+        <v>0.05529223551277628</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.05529223551277628</v>
+        <v>0.05544333716887227</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05544333716887227</v>
+        <v>0.05579223551277628</v>
       </c>
       <c r="AB3" t="n">
         <v>0.05579223551277628</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.05579223551277628</v>
+        <v>0.7003329133277881</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.7003329133277881</v>
+        <v>0.6896036792491896</v>
       </c>
       <c r="AE3" t="n">
         <v>0.6896036792491896</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6896036792491896</v>
+        <v>0.004832289540463043</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.004832289540463043</v>
+        <v>0.005037088512362603</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.005037088512362603</v>
+        <v>0.0009622836343852729</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0009622836343852729</v>
+        <v>0.01681360812534903</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.01681360812534903</v>
+        <v>0.01646470978144501</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.01646470978144501</v>
+        <v>0.01716250646925305</v>
       </c>
       <c r="AL3" t="n">
         <v>0.01716250646925305</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.01716250646925305</v>
+        <v>2.724652705685985</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.724652705685985</v>
+        <v>1.999557838150698</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.999557838150698</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.7500000000000001</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.333333333333333</v>
+        <v>0.2241604789198857</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2241604789198857</v>
+        <v>0.05000000000000016</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.05000000000000016</v>
+        <v>0.02973781690832768</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.02973781690832768</v>
+        <v>1.42816520505409</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.42816520505409</v>
+        <v>-78.9865367125031</v>
       </c>
     </row>
   </sheetData>
